--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_367.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_367.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32607-d536320-Reviews-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Holiday-Inn-Express-Lancaster.h1172331.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_367.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_367.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1388 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r582079418-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>32607</t>
+  </si>
+  <si>
+    <t>536320</t>
+  </si>
+  <si>
+    <t>582079418</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Above Average Budget Hotel</t>
+  </si>
+  <si>
+    <t>The front desk clerks are all nice, and the property has nicely appointed rooms with a very comfortable bed. I did not, however, appreciate the impatient housekeeping that disturbed me both mornings for cleaning, even though there was a do not disturb sign on the door. The first time, right at 11, and the day I checked out at was at 10:40 (check-out time is 11). Same lady, too. That was not appreciated. Also, the pillow cases were NOT changed after the prior guests left, as they stank of B.O. on my first night. Fortunately, I usually bring my own pillow, but that makes me question the cleaning quality. Am I staying on used sheets when I go there?  (I stay frequently) If the pillow cases weren't changed, chances are the sheets weren't either. I even put the card requesting fresh linens on the bed in plain sight -- of course, the sheets were not changed (surprised), because I put a small pen dot on each sheet and pillow case to test my theory; the dots were still there. SHAME!! Other than that, the value can't be beat, and the location is advantageous for me. Hopefully, a management team member sees my review and addresses this.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Rosa R, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>The front desk clerks are all nice, and the property has nicely appointed rooms with a very comfortable bed. I did not, however, appreciate the impatient housekeeping that disturbed me both mornings for cleaning, even though there was a do not disturb sign on the door. The first time, right at 11, and the day I checked out at was at 10:40 (check-out time is 11). Same lady, too. That was not appreciated. Also, the pillow cases were NOT changed after the prior guests left, as they stank of B.O. on my first night. Fortunately, I usually bring my own pillow, but that makes me question the cleaning quality. Am I staying on used sheets when I go there?  (I stay frequently) If the pillow cases weren't changed, chances are the sheets weren't either. I even put the card requesting fresh linens on the bed in plain sight -- of course, the sheets were not changed (surprised), because I put a small pen dot on each sheet and pillow case to test my theory; the dots were still there. SHAME!! Other than that, the value can't be beat, and the location is advantageous for me. Hopefully, a management team member sees my review and addresses this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r581676535-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>581676535</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>The Bad turned to Good.</t>
+  </si>
+  <si>
+    <t>The good and the bad, yes still 5 stars with negatives. Ok start with the bad these tend to be out of the staffs control. 1. No Holiday Inn Express on Google Maps I had to add it. 2. Trip advisers had it labeled as Pet Friendly even when I called I got confirmation that it was pet friendly from the reservation hotline not the actual hotel, however when I arrived a 6 hours later this was not the case. While I filled out the documents I noticed that they didn't have pet paper work which they normally do along with a fee all normal. When I brought this to the receptionist attention and was informed that they didn't allow pets I show they trip adviser, explained the reason picked this hotel, and the receptionist had to contact the night manager and after a short phone call. I was informed that to accommodate my need I would have to pay a huge pet fee (300.00) for unauthorized pets. 3. My cable was out not required for me but aheads up would have been nice. This is where the staff turned the Bad in to the good, they ensured I had everything I needed and knew the local area rather well. I literally didn't need my GPS during the stay because the directions were that good and easy to follow. The entire staff so far has made it feel like they...The good and the bad, yes still 5 stars with negatives. Ok start with the bad these tend to be out of the staffs control. 1. No Holiday Inn Express on Google Maps I had to add it. 2. Trip advisers had it labeled as Pet Friendly even when I called I got confirmation that it was pet friendly from the reservation hotline not the actual hotel, however when I arrived a 6 hours later this was not the case. While I filled out the documents I noticed that they didn't have pet paper work which they normally do along with a fee all normal. When I brought this to the receptionist attention and was informed that they didn't allow pets I show they trip adviser, explained the reason picked this hotel, and the receptionist had to contact the night manager and after a short phone call. I was informed that to accommodate my need I would have to pay a huge pet fee (300.00) for unauthorized pets. 3. My cable was out not required for me but aheads up would have been nice. This is where the staff turned the Bad in to the good, they ensured I had everything I needed and knew the local area rather well. I literally didn't need my GPS during the stay because the directions were that good and easy to follow. The entire staff so far has made it feel like they are truly here for my comfort, hell I still have a few more nights and I am looking forward to them.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rosa R, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>The good and the bad, yes still 5 stars with negatives. Ok start with the bad these tend to be out of the staffs control. 1. No Holiday Inn Express on Google Maps I had to add it. 2. Trip advisers had it labeled as Pet Friendly even when I called I got confirmation that it was pet friendly from the reservation hotline not the actual hotel, however when I arrived a 6 hours later this was not the case. While I filled out the documents I noticed that they didn't have pet paper work which they normally do along with a fee all normal. When I brought this to the receptionist attention and was informed that they didn't allow pets I show they trip adviser, explained the reason picked this hotel, and the receptionist had to contact the night manager and after a short phone call. I was informed that to accommodate my need I would have to pay a huge pet fee (300.00) for unauthorized pets. 3. My cable was out not required for me but aheads up would have been nice. This is where the staff turned the Bad in to the good, they ensured I had everything I needed and knew the local area rather well. I literally didn't need my GPS during the stay because the directions were that good and easy to follow. The entire staff so far has made it feel like they...The good and the bad, yes still 5 stars with negatives. Ok start with the bad these tend to be out of the staffs control. 1. No Holiday Inn Express on Google Maps I had to add it. 2. Trip advisers had it labeled as Pet Friendly even when I called I got confirmation that it was pet friendly from the reservation hotline not the actual hotel, however when I arrived a 6 hours later this was not the case. While I filled out the documents I noticed that they didn't have pet paper work which they normally do along with a fee all normal. When I brought this to the receptionist attention and was informed that they didn't allow pets I show they trip adviser, explained the reason picked this hotel, and the receptionist had to contact the night manager and after a short phone call. I was informed that to accommodate my need I would have to pay a huge pet fee (300.00) for unauthorized pets. 3. My cable was out not required for me but aheads up would have been nice. This is where the staff turned the Bad in to the good, they ensured I had everything I needed and knew the local area rather well. I literally didn't need my GPS during the stay because the directions were that good and easy to follow. The entire staff so far has made it feel like they are truly here for my comfort, hell I still have a few more nights and I am looking forward to them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r575050137-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>575050137</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>SAD!</t>
+  </si>
+  <si>
+    <t>We experienced an amazing journey from British Columbia, Canada to California coastal route.  We had great lodging, fun loving Americans throughout Washington,  Oregon and California. We stayed in Holiday Inn Express in the Redwoods!   Helpful staff.  We are joining family in Palm Springs and returning back to   Canada.  I joined membership so we could receive membership privileges.  We did not check website. ..we drove from Monterey to Palmdale on the advice of a very helpful gas attendant.  Avoiding LA .  The Palmdale staff knew about the hotel construction watershut down from 9am to 5pm ,  however decided not to advise us. Palmdale staff could not receive our membership number?  Redwood holiday express had no problems.  We arrive in our room and we saw the water advisory notice on our bed.  I telephoned front desk...asked what the?...I was told they flipped. ..? Not sure what this means?  Staff were going to put notice under our door in ten minutes! no cold water in room either.  I walked directly to front desk and a notification of water shut off was now posted.  I said..this wasn't here 10 minutes ago?  Front staff agreed :  just put the sign out!  We paid full room rate for a Sunday.  I showed my displeasure, stating it was a scam and front staff smiled!   No more Holiday Inn for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Rosa R, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
+  </si>
+  <si>
+    <t>We experienced an amazing journey from British Columbia, Canada to California coastal route.  We had great lodging, fun loving Americans throughout Washington,  Oregon and California. We stayed in Holiday Inn Express in the Redwoods!   Helpful staff.  We are joining family in Palm Springs and returning back to   Canada.  I joined membership so we could receive membership privileges.  We did not check website. ..we drove from Monterey to Palmdale on the advice of a very helpful gas attendant.  Avoiding LA .  The Palmdale staff knew about the hotel construction watershut down from 9am to 5pm ,  however decided not to advise us. Palmdale staff could not receive our membership number?  Redwood holiday express had no problems.  We arrive in our room and we saw the water advisory notice on our bed.  I telephoned front desk...asked what the?...I was told they flipped. ..? Not sure what this means?  Staff were going to put notice under our door in ten minutes! no cold water in room either.  I walked directly to front desk and a notification of water shut off was now posted.  I said..this wasn't here 10 minutes ago?  Front staff agreed :  just put the sign out!  We paid full room rate for a Sunday.  I showed my displeasure, stating it was a scam and front staff smiled!   No more Holiday Inn for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r549745633-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>549745633</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Clean and modern</t>
+  </si>
+  <si>
+    <t>Typical HI express hotel with usual breakfast, nothing fancy. Hotel and rooms where clean and well kept. Staff was friendly. Not much walking distance from hotel, would not walk around at night. Outdoor swimming pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Rosa R, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Typical HI express hotel with usual breakfast, nothing fancy. Hotel and rooms where clean and well kept. Staff was friendly. Not much walking distance from hotel, would not walk around at night. Outdoor swimming pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r540951923-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>540951923</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Lancaster Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>Nice, convenient, clean, affordable and easily accessible, near to major highways. It's easy to make reservations and customer service is welcoming. Rooms clean daily, free breakfast and special dinner offered on Mondays and Wednesdays.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nice, convenient, clean, affordable and easily accessible, near to major highways. It's easy to make reservations and customer service is welcoming. Rooms clean daily, free breakfast and special dinner offered on Mondays and Wednesdays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r538620560-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>538620560</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Nice clean hotel</t>
+  </si>
+  <si>
+    <t>Hotel right off freeway, eatery nearby,  nice clean good size room/sofa bed in separate room.  Breakfast included, not bad at all.  very small pool, did not use.  Price is higher than hotels nearby but those other hotels/motels look dated.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Hotel right off freeway, eatery nearby,  nice clean good size room/sofa bed in separate room.  Breakfast included, not bad at all.  very small pool, did not use.  Price is higher than hotels nearby but those other hotels/motels look dated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r522333918-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>522333918</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Disappointing for Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights while we visited family in the area.  There was a Moldy/mildew smell when you entered the hotel.  The wife commented it smelled as if it was flooded or something.  Smell was also in the room.  I realize Lancaster is in the desert, but I think all the ac in the hotel is making it smell bad.  Staff was friendly and room was clean and comfortable.  If it wasn't for the smell, it would have been a nice stay.  I would have not expected this from this hotel chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Front Desk L, Front Office Manager at Holiday Inn Express Lancaster, responded to this reviewResponded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights while we visited family in the area.  There was a Moldy/mildew smell when you entered the hotel.  The wife commented it smelled as if it was flooded or something.  Smell was also in the room.  I realize Lancaster is in the desert, but I think all the ac in the hotel is making it smell bad.  Staff was friendly and room was clean and comfortable.  If it wasn't for the smell, it would have been a nice stay.  I would have not expected this from this hotel chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r515557918-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>515557918</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Good Stopping Point</t>
+  </si>
+  <si>
+    <t>Clean and relatively quiet. Staff was friendly. Breakfast was okay, but was being restocked so I wasn't able to take full advantage. Still, a very good visit. We'd stay here again if we make it back to Lancaster.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front Desk L, Front Office Manager at Holiday Inn Express Lancaster, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Clean and relatively quiet. Staff was friendly. Breakfast was okay, but was being restocked so I wasn't able to take full advantage. Still, a very good visit. We'd stay here again if we make it back to Lancaster.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r504179831-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>504179831</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Quiet location. nice and clean room</t>
+  </si>
+  <si>
+    <t>its not to far off freeway,, real quiet on a dead end street, hotel check-in was fast and easy. room was perfect no problems,, the mattress was one of the best i have slept on in a while. seemed popular. which is a good sign that it is a good hotel as there are many hotels in lancaster.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>its not to far off freeway,, real quiet on a dead end street, hotel check-in was fast and easy. room was perfect no problems,, the mattress was one of the best i have slept on in a while. seemed popular. which is a good sign that it is a good hotel as there are many hotels in lancaster.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r475451750-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>475451750</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>small beds, poor pool, good breakfast</t>
+  </si>
+  <si>
+    <t>Hotel, Room, Breakfast was in good condition. We had a two room suite and another room for one night. 
+The bed in the one room was not a king not even a Queen but a Double which is NOT what you could or would or we expect(ed). We never had anything like this, years ago saw a motel6 that had better options, when we were a family of three and wanted at least two separate beds. 
+Have to admit we booked over one of these websites and not directly with the hotel. But it wouldn't have changed much, having looked at the room choices on their website later that night. 
+Btw at check-in the clerk claimed the hotel was booked out (but parking lot was very empty at 10pm when we arrived.  
+Overall and despite the hotel being in good condition and breakfast being decent I can not recommend this. A small room without anything and the small bed (much below the rest of the standard of the rest of the hotel). Why coming back or booking here?
+PS:
+Pool is a one star hotel standard pool I'd say (small and just very plain).
+PS2:
+The two room suite we got however was huge but also ... kind of empty. One room with two doubles, the second room was a lot of unused space without amenities but a sofa sleeper. 
+PS3:
+Hotel was probably recently upgraded, and maybe we were...Hotel, Room, Breakfast was in good condition. We had a two room suite and another room for one night. The bed in the one room was not a king not even a Queen but a Double which is NOT what you could or would or we expect(ed). We never had anything like this, years ago saw a motel6 that had better options, when we were a family of three and wanted at least two separate beds. Have to admit we booked over one of these websites and not directly with the hotel. But it wouldn't have changed much, having looked at the room choices on their website later that night. Btw at check-in the clerk claimed the hotel was booked out (but parking lot was very empty at 10pm when we arrived.  Overall and despite the hotel being in good condition and breakfast being decent I can not recommend this. A small room without anything and the small bed (much below the rest of the standard of the rest of the hotel). Why coming back or booking here?PS:Pool is a one star hotel standard pool I'd say (small and just very plain).PS2:The two room suite we got however was huge but also ... kind of empty. One room with two doubles, the second room was a lot of unused space without amenities but a sofa sleeper. PS3:Hotel was probably recently upgraded, and maybe we were happy to get upgraded rooms, still price was rather high and in hindsight not appropriate.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Rosa R, Manager at Holiday Inn Express Lancaster, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Hotel, Room, Breakfast was in good condition. We had a two room suite and another room for one night. 
+The bed in the one room was not a king not even a Queen but a Double which is NOT what you could or would or we expect(ed). We never had anything like this, years ago saw a motel6 that had better options, when we were a family of three and wanted at least two separate beds. 
+Have to admit we booked over one of these websites and not directly with the hotel. But it wouldn't have changed much, having looked at the room choices on their website later that night. 
+Btw at check-in the clerk claimed the hotel was booked out (but parking lot was very empty at 10pm when we arrived.  
+Overall and despite the hotel being in good condition and breakfast being decent I can not recommend this. A small room without anything and the small bed (much below the rest of the standard of the rest of the hotel). Why coming back or booking here?
+PS:
+Pool is a one star hotel standard pool I'd say (small and just very plain).
+PS2:
+The two room suite we got however was huge but also ... kind of empty. One room with two doubles, the second room was a lot of unused space without amenities but a sofa sleeper. 
+PS3:
+Hotel was probably recently upgraded, and maybe we were...Hotel, Room, Breakfast was in good condition. We had a two room suite and another room for one night. The bed in the one room was not a king not even a Queen but a Double which is NOT what you could or would or we expect(ed). We never had anything like this, years ago saw a motel6 that had better options, when we were a family of three and wanted at least two separate beds. Have to admit we booked over one of these websites and not directly with the hotel. But it wouldn't have changed much, having looked at the room choices on their website later that night. Btw at check-in the clerk claimed the hotel was booked out (but parking lot was very empty at 10pm when we arrived.  Overall and despite the hotel being in good condition and breakfast being decent I can not recommend this. A small room without anything and the small bed (much below the rest of the standard of the rest of the hotel). Why coming back or booking here?PS:Pool is a one star hotel standard pool I'd say (small and just very plain).PS2:The two room suite we got however was huge but also ... kind of empty. One room with two doubles, the second room was a lot of unused space without amenities but a sofa sleeper. PS3:Hotel was probably recently upgraded, and maybe we were happy to get upgraded rooms, still price was rather high and in hindsight not appropriate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r471995109-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>471995109</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Dependable as always</t>
+  </si>
+  <si>
+    <t>We stay at this chain often because the rooms are clean and modern. We like the free internet and the breakfast. I like to start the day with coffee and a newspaper. It's all here and reasonably priced.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Front Desk L, Front Office Manager at Holiday Inn Express Lancaster, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>We stay at this chain often because the rooms are clean and modern. We like the free internet and the breakfast. I like to start the day with coffee and a newspaper. It's all here and reasonably priced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r471560223-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>471560223</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Great impression!</t>
+  </si>
+  <si>
+    <t>I stayed for a weekend with my family, I was very impressed of how clean our room was, also the staff was very welcoming. I recommend Holiday Inn Express Lancaster 100%! It's also very close to restaurants, very convenient. I'm truly happy with my stayed. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for a weekend with my family, I was very impressed of how clean our room was, also the staff was very welcoming. I recommend Holiday Inn Express Lancaster 100%! It's also very close to restaurants, very convenient. I'm truly happy with my stayed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r453066778-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>453066778</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Attention racers @ Willow Springs this is a GREAT place to stay!</t>
+  </si>
+  <si>
+    <t>I stay here a dozen times a year and have done so for the last 3+ years.   This is a great hotel with attentive staff and a convenient location, especially if you are racing at Willow Springs International Raceway.   The Manager, Rosa and her staff take good care of the hotel keeping it clean and are attentive to your needs.   HIGHLY RECOMMENDED!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Rosa R, Manager at Holiday Inn Express Lancaster, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>I stay here a dozen times a year and have done so for the last 3+ years.   This is a great hotel with attentive staff and a convenient location, especially if you are racing at Willow Springs International Raceway.   The Manager, Rosa and her staff take good care of the hotel keeping it clean and are attentive to your needs.   HIGHLY RECOMMENDED!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r446970489-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>446970489</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Lies, dirty rooms, and over charges</t>
+  </si>
+  <si>
+    <t>Before i booked i called and asked if i could get a suite with my employee rate she assured me i could, at check in they lied and charged me extra for my suite. The first suite was dirty hair on the bed pillow cases were used and sheets were dirty. I asked were there any smoking rooms i was told no so all smoking was done outside in the designated smoking area which they had a problem with! I am a housekeeper so I personally cleaned the suite before I left ! they charged me $200 for a smoking fee when no one was smoking and the manager I spoke was very nasty about it and still hasn't called me back after I left her a message worst hotel ever never againMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Rosa R, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Before i booked i called and asked if i could get a suite with my employee rate she assured me i could, at check in they lied and charged me extra for my suite. The first suite was dirty hair on the bed pillow cases were used and sheets were dirty. I asked were there any smoking rooms i was told no so all smoking was done outside in the designated smoking area which they had a problem with! I am a housekeeper so I personally cleaned the suite before I left ! they charged me $200 for a smoking fee when no one was smoking and the manager I spoke was very nasty about it and still hasn't called me back after I left her a message worst hotel ever never againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r442254018-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>442254018</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>We were caught in the Thanksgiving traffic &amp; decided to spend the night after dropping off my granddaughter at college.  Reservation was processed quickly &amp; night clerk was so helpful and gave us toothbrushes &amp; toothpaste.  The bed were very comfortable &amp; their breakfast was hot &amp; fresh. We would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Rosa R, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>We were caught in the Thanksgiving traffic &amp; decided to spend the night after dropping off my granddaughter at college.  Reservation was processed quickly &amp; night clerk was so helpful and gave us toothbrushes &amp; toothpaste.  The bed were very comfortable &amp; their breakfast was hot &amp; fresh. We would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r399245274-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>399245274</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Best of the best!</t>
+  </si>
+  <si>
+    <t>This was a great hotel for my family. We were traveling with two little ones. The room was large and very comfortable. Very accessible for someone handicapped. The room was super clean and well kept up. Very helpful staff. Inexpensive luxury!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Rosa R, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>This was a great hotel for my family. We were traveling with two little ones. The room was large and very comfortable. Very accessible for someone handicapped. The room was super clean and well kept up. Very helpful staff. Inexpensive luxury!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r396415789-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>396415789</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>family trip</t>
+  </si>
+  <si>
+    <t>kids  had  a good time. great ac and beds. t v was good for kids. beds a little to soft for my taste. Overall great price and location (right of the 14). a couple of gas stations around and a good dinerMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Rosa R, Manager at Holiday Inn Express Lancaster, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>kids  had  a good time. great ac and beds. t v was good for kids. beds a little to soft for my taste. Overall great price and location (right of the 14). a couple of gas stations around and a good dinerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r393357216-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>393357216</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Another good Hoilday Inn Express on our road trip</t>
+  </si>
+  <si>
+    <t>For a visit to Edwards Air force base, book the tour!, we needed a place to sleep. Again we were not disappointed by the Holiday Inn Express hotel, nice spacy rooms and a great breakfast. Restaurants and shopping around and a 30 minute drive to the base!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rosa R, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>For a visit to Edwards Air force base, book the tour!, we needed a place to sleep. Again we were not disappointed by the Holiday Inn Express hotel, nice spacy rooms and a great breakfast. Restaurants and shopping around and a 30 minute drive to the base!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r373838678-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>373838678</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Friendly, Quiet stay</t>
+  </si>
+  <si>
+    <t>Great, quiet, clean location. We arrived in town a little earlier than expected, and a bit tired due to an early flight into LAX and a long drive up due to traffic.  Although the official check in time was not for another 3 hours, the staff was able to get us into a room quickly and easily.  This was greatly appreciated.  My son and I were visiting family in town, and while we didn't take advantage of all the tourist amenities, we very much enjoyed our stay.  Room was cleaned promptly and well, and the front desk staff were terrific any time we had questions.  It is definitely on our list for future visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Rosa R, Manager at Holiday Inn Express Lancaster, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Great, quiet, clean location. We arrived in town a little earlier than expected, and a bit tired due to an early flight into LAX and a long drive up due to traffic.  Although the official check in time was not for another 3 hours, the staff was able to get us into a room quickly and easily.  This was greatly appreciated.  My son and I were visiting family in town, and while we didn't take advantage of all the tourist amenities, we very much enjoyed our stay.  Room was cleaned promptly and well, and the front desk staff were terrific any time we had questions.  It is definitely on our list for future visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r367398220-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>367398220</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, but its still a budget hotel</t>
+  </si>
+  <si>
+    <t>Let's start with the good: The staff at this hotel was very nice and accommodating. We were able to use the breakfast area for a team dinner with food that we brought in from outside. The room was a good size with a very large, flat screen TV. Keurig coffee maker with pods included. The bathroom area was quite large with high quality Bath &amp; Body Works shampoo and conditioner. And a large refrigerator (mid-size - bigger than the usual mini-fridge). Mattresses were very firm - so a good night sleep was had by all.Now the bad:The walls are thin and there is no sound insulation on the doors, so we heard everyone walking and talking outside in the hall.The sink in the bathroom isn't aligned to the mirror - good luck shaving when you are offset (makeup too?).The fitness center is very spartan, with one old exercise bike (missing the pedal straps), an old rowing machine, and two treadmills.The breakfast is very extensive, but the quality was low on some of the items. But stick to the oatmeal and yogurt and you'll be fine. Bad coffee - but Starbucks is nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rosa R, Manager at Holiday Inn Express Lancaster, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Let's start with the good: The staff at this hotel was very nice and accommodating. We were able to use the breakfast area for a team dinner with food that we brought in from outside. The room was a good size with a very large, flat screen TV. Keurig coffee maker with pods included. The bathroom area was quite large with high quality Bath &amp; Body Works shampoo and conditioner. And a large refrigerator (mid-size - bigger than the usual mini-fridge). Mattresses were very firm - so a good night sleep was had by all.Now the bad:The walls are thin and there is no sound insulation on the doors, so we heard everyone walking and talking outside in the hall.The sink in the bathroom isn't aligned to the mirror - good luck shaving when you are offset (makeup too?).The fitness center is very spartan, with one old exercise bike (missing the pedal straps), an old rowing machine, and two treadmills.The breakfast is very extensive, but the quality was low on some of the items. But stick to the oatmeal and yogurt and you'll be fine. Bad coffee - but Starbucks is nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r357348909-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>357348909</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Convientent and cozy</t>
+  </si>
+  <si>
+    <t>Great place right off the Fwy 14, and quiet. Breakfast bar OK. But the will provide a bag to go early if you leave before Breakfast starts. Other restaurants and shops close by. Staff  was very helpful, even looking for another hotel for guest because Holiday in was full (over heard) Rooms are great with microwave, fridge, and Direct TV with lots of channel options. Will definitely stay again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r311002041-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>311002041</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Consistently the Best!</t>
+  </si>
+  <si>
+    <t>I returned to this HIE for two weeks in August.  This facility continues in reign at the top.  There is no change over in staff, the rooms are so clean, the outside gorgeously maintained (landscape and pool), two newspapers, and breakfast is the best with extra fruit (besides apples, oranges, and bananas) rotating between fresh pineapple, cataloupe, and watermelon.  And, the business center computer and printer was always working - yay!  The staff is very gracious and eager to please!  Love this place! :D</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r293937389-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>293937389</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay</t>
+  </si>
+  <si>
+    <t>Rooms were nice and clean, and the large room with balconies are my recommendation.  Beds were comfy and the staff helpful and friendly.  Location was great as it was central to what we were there for. The breakfast set up lady wasn't very nice, but it was busy and some patrons were rude, so I guess I understand.  We'll stay again!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r281112863-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>281112863</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great </t>
+  </si>
+  <si>
+    <t>This is a very new and modern facility. It has a decent restaurant close by (Marie calendars). It is reasonably priced and convenient access. I recommend this property if you are in the Lancaster California area. If you are visiting here during the summer I recommend you park on the north side of the parking lot under the shade tree.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r276304765-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>276304765</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>Great Staff, Spacious Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color me sheepish. I arrived here with low expectations because I'd heard the area was a bit rough, but the outstanding reception I received from Melissa threw all misgivings aside. The building layout is typical for HIX in CA. My room was spacious and clean: familiar HIX quality. Freeway access is easy, but of course that translates to road noise. Not the worst, but if you face away from it, you'll be on the west side (subject to the relentless Mojave sun). </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r267617837-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>267617837</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean comfortable rooms. New hotel. Beautifully designed hotel and modern touches. We enjoyed our suite. Staff was very friendly. We will stay here again when visiting our family in California. Breakfast was great and I loved the design and layout of the room. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r267443412-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>267443412</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and Clean!</t>
+  </si>
+  <si>
+    <t>Stayed at this Holiday Inn while attending a soccer tournament in March. My room was exactly what I had requested.  It was clean and very comfortable with great internet service. Plus it had my favorite TV stations!  Free breakfast was standard hotel items but it was filling and plentiful.   All staff I interacted with were friendly and helpful!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r244593403-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>244593403</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>This hotel is a great place to stay if you have to go to Lancaster Ca. Everything was top notch.  Front desk help was very efficient. the room very clean, the whole property was clean.The only complaint that I have is the pool is outdoors. During the winter in Lancaster it gets pretty cold</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r225574495-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>225574495</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Our room was a nice size, comfortable beds, pleasant staff, and good free breakfast. The girl at the front desk greeted us with a smile and was helpful getting me directions so that I could get around. We didn't utilize the pool but I did notice it was small but clean.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r219704827-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>219704827</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting family. The hotel staff was very friendly, the room was clean, comfortable, quiet. They have a managers reception on Mondays and Wednesday evening with water, sodas, beer along with a light meal. They served chicken on one night and lasagna on the other night. When in the area we would definitely stay here again. They gave us a late checkout so we could go to lunch and return to pick up our luggage before heading to LAX for our flight.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r209665874-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>209665874</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>No Disappointments, No Surprises</t>
+  </si>
+  <si>
+    <t>I have been coming to Lancaster to visit my mother for years. It is good to say that each visit to this Holiday Inn, it is never disappointing or a surprise. Melissa is always friendly and accommodating as is the rest of the staff. All caring, helpful, pleasant and cheerful. Obviously a well managed and disciplined staff, with as a greater attention to detail compared to other hotels I frequent throughout the country.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r209603865-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>209603865</t>
+  </si>
+  <si>
+    <t>Clean, nice Hotel</t>
+  </si>
+  <si>
+    <t>Well kept Holiday inn. Seems to be family run and thats why its so clean and kept up. Out of the way but good restaurants are in the area. Nice breakfast and sitting area. Laundry facility is available in hotel. Only negative is the workout room only 4 pieces of equipment.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r202400293-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>202400293</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Bad Experience with Breakfast</t>
+  </si>
+  <si>
+    <t>The staff was extremely nice and helpful with room keys that wouldn't work and suggesting local restaurants. The bed was very comfortable. Everything was clean. I liked how they provided plastic water glasses in the room instead of glass ones (more hygienic). BUT I ran into a major issue our last morning there. I got two little cartons of fat free milk out of their mini fridge in the breakfast area. I sat down, took a bite of toast, then opened one and took a huge swig of it. IT WAS ROTTEN. I got up and ran to the garbage can and spit it out. Told the breakfast attendant and she and her boss went and looked at all the milks in the fridge. They were ALL past their date. I didn't even look at the date since the lady refilled the fridge every morning. LESSON LEARNED. Took me brushing my teeth three times to finally get the nasty taste out of my mouth.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded April 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2014</t>
+  </si>
+  <si>
+    <t>The staff was extremely nice and helpful with room keys that wouldn't work and suggesting local restaurants. The bed was very comfortable. Everything was clean. I liked how they provided plastic water glasses in the room instead of glass ones (more hygienic). BUT I ran into a major issue our last morning there. I got two little cartons of fat free milk out of their mini fridge in the breakfast area. I sat down, took a bite of toast, then opened one and took a huge swig of it. IT WAS ROTTEN. I got up and ran to the garbage can and spit it out. Told the breakfast attendant and she and her boss went and looked at all the milks in the fridge. They were ALL past their date. I didn't even look at the date since the lady refilled the fridge every morning. LESSON LEARNED. Took me brushing my teeth three times to finally get the nasty taste out of my mouth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r195808022-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>195808022</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Nice Place to Rest with Good Continental Breakfast</t>
+  </si>
+  <si>
+    <t>We stayed here for a soccer tournament.  This is a new hotel and they have done a great job making sure that they escaped from the usual Lancaster feel of hotels in the area.  The room was clean and welcoming.  The lobby was nicely updated with a big screen tv with couches and chairs.  People were hanging out watching the Olympics while relaxing on the chairs.  The breakfast in the morning had a nice selection of cereal, fruit, pancakes, little omlettes with cheese or scrambled eggs, and warm cinnamon rolls.  They even had yogurt in a fridge.
+There was only one hiccup in the beginning of our stay with the tv.  They have Direct TV, but no box.  We couldn't get the tv to change channels at first and called down to the front desk.  They told us to unplug the tv and plug it in again to reset it.  Still didn't change channels, even with moving the remote around.  Called down again, and a guy said he would be there to fix it.  When he came in, he showed us a tiny sensor right below the tv that has to be connected to the stand.  It is pushed on there and stays via a sticker of some sort.  It worked, but less than a few minutes later, the piece came away from the tv again, and we had to get up and push it back on.  I ended up...We stayed here for a soccer tournament.  This is a new hotel and they have done a great job making sure that they escaped from the usual Lancaster feel of hotels in the area.  The room was clean and welcoming.  The lobby was nicely updated with a big screen tv with couches and chairs.  People were hanging out watching the Olympics while relaxing on the chairs.  The breakfast in the morning had a nice selection of cereal, fruit, pancakes, little omlettes with cheese or scrambled eggs, and warm cinnamon rolls.  They even had yogurt in a fridge.There was only one hiccup in the beginning of our stay with the tv.  They have Direct TV, but no box.  We couldn't get the tv to change channels at first and called down to the front desk.  They told us to unplug the tv and plug it in again to reset it.  Still didn't change channels, even with moving the remote around.  Called down again, and a guy said he would be there to fix it.  When he came in, he showed us a tiny sensor right below the tv that has to be connected to the stand.  It is pushed on there and stays via a sticker of some sort.  It worked, but less than a few minutes later, the piece came away from the tv again, and we had to get up and push it back on.  I ended up pulling the wire more from the back of the tv to give it more slack so that it wouldn't be pulled off.  That worked and we never had an issue with the tv again.Overall, we were pleased with our stay and would definitely stay here again.  The bed was comfy, the room was quiet, and this hotel is close to the fields.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for a soccer tournament.  This is a new hotel and they have done a great job making sure that they escaped from the usual Lancaster feel of hotels in the area.  The room was clean and welcoming.  The lobby was nicely updated with a big screen tv with couches and chairs.  People were hanging out watching the Olympics while relaxing on the chairs.  The breakfast in the morning had a nice selection of cereal, fruit, pancakes, little omlettes with cheese or scrambled eggs, and warm cinnamon rolls.  They even had yogurt in a fridge.
+There was only one hiccup in the beginning of our stay with the tv.  They have Direct TV, but no box.  We couldn't get the tv to change channels at first and called down to the front desk.  They told us to unplug the tv and plug it in again to reset it.  Still didn't change channels, even with moving the remote around.  Called down again, and a guy said he would be there to fix it.  When he came in, he showed us a tiny sensor right below the tv that has to be connected to the stand.  It is pushed on there and stays via a sticker of some sort.  It worked, but less than a few minutes later, the piece came away from the tv again, and we had to get up and push it back on.  I ended up...We stayed here for a soccer tournament.  This is a new hotel and they have done a great job making sure that they escaped from the usual Lancaster feel of hotels in the area.  The room was clean and welcoming.  The lobby was nicely updated with a big screen tv with couches and chairs.  People were hanging out watching the Olympics while relaxing on the chairs.  The breakfast in the morning had a nice selection of cereal, fruit, pancakes, little omlettes with cheese or scrambled eggs, and warm cinnamon rolls.  They even had yogurt in a fridge.There was only one hiccup in the beginning of our stay with the tv.  They have Direct TV, but no box.  We couldn't get the tv to change channels at first and called down to the front desk.  They told us to unplug the tv and plug it in again to reset it.  Still didn't change channels, even with moving the remote around.  Called down again, and a guy said he would be there to fix it.  When he came in, he showed us a tiny sensor right below the tv that has to be connected to the stand.  It is pushed on there and stays via a sticker of some sort.  It worked, but less than a few minutes later, the piece came away from the tv again, and we had to get up and push it back on.  I ended up pulling the wire more from the back of the tv to give it more slack so that it wouldn't be pulled off.  That worked and we never had an issue with the tv again.Overall, we were pleased with our stay and would definitely stay here again.  The bed was comfy, the room was quiet, and this hotel is close to the fields.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r194758430-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>194758430</t>
+  </si>
+  <si>
+    <t>02/20/2014</t>
+  </si>
+  <si>
+    <t>Very nice HIE</t>
+  </si>
+  <si>
+    <t>We have family in Lancaster so spend a few days when we can. This year we were traveling with our dogs and saw that this hotel had rooms set aside for pets. They do charge for pets but not as much as some. This is a newer hotel and the rooms were clean, beautiful, and restful. We would certainly stay again even without our pets! The location is perfect for us as well. RecommendMoreShow less</t>
+  </si>
+  <si>
+    <t>We have family in Lancaster so spend a few days when we can. This year we were traveling with our dogs and saw that this hotel had rooms set aside for pets. They do charge for pets but not as much as some. This is a newer hotel and the rooms were clean, beautiful, and restful. We would certainly stay again even without our pets! The location is perfect for us as well. RecommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r191248204-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>191248204</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn Express in Lancaster while on a business trip. The front desk and cleaning employees were all friendly and extremely helpful, my room was large and comfortable, and the hotel was modern and clean. Recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded January 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn Express in Lancaster while on a business trip. The front desk and cleaning employees were all friendly and extremely helpful, my room was large and comfortable, and the hotel was modern and clean. Recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r186244394-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>186244394</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>All Around Excellent. The service was very good. Hotel employees Michelle and Sabrina at the front dest made a difference in my stay.  The room was very clean. The location of the hotel was centrally located right off the 14. The king size bed was very comfortable. I will diffently stay here again if the opportunity presented itself again.  Sal F.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded December 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2013</t>
+  </si>
+  <si>
+    <t>All Around Excellent. The service was very good. Hotel employees Michelle and Sabrina at the front dest made a difference in my stay.  The room was very clean. The location of the hotel was centrally located right off the 14. The king size bed was very comfortable. I will diffently stay here again if the opportunity presented itself again.  Sal F.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r185303250-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>185303250</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Get oustmer sevice 
+l</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay very much from check in to check out the room was very clean as well as the rest of the hotel. I found the staff to be friendly and well trained. I would like to mention.a saff member by namr as he really went above and beyond in good coustmer serivce thanks you Luis for a great stay.... I will return and recommend your hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay very much from check in to check out the room was very clean as well as the rest of the hotel. I found the staff to be friendly and well trained. I would like to mention.a saff member by namr as he really went above and beyond in good coustmer serivce thanks you Luis for a great stay.... I will return and recommend your hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r185045315-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>185045315</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Customer Service!</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise to find such hospitality on a business trip. The staff is very warm, friendly and helpful. From the welcoming get together in the evening, the clean quiet rooms and the complimentary breakfast it was great. Thank you to Luis Amaya, Lisa, Tina and the entire staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa H, Manager at Holiday Inn Express Lancaster, responded to this reviewResponded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2013</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise to find such hospitality on a business trip. The staff is very warm, friendly and helpful. From the welcoming get together in the evening, the clean quiet rooms and the complimentary breakfast it was great. Thank you to Luis Amaya, Lisa, Tina and the entire staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r183701715-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>183701715</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Great Place To Stay In Lancaster</t>
+  </si>
+  <si>
+    <t>I have occasion to visit the desert.  I never looked forward to the stay until I found this Holiday Inn Express.  The rooms are very nice, quiet and affordable.  I always get the suite with a balcony now.  They offer plenty of room, space to work or just relax inside or out. The staff really goes out of its way.  I stayed yesterday, a Monday.  I was stopped as I went to exit the lobby by a very nice staff person who suggested I "stay in and enjoy the pizza and beer."  I did while watching Monday night football on a big screen.  The night was relaxing and as the staff person suggested "a lot better than going out for dinner in this cold weather."  I cannot say enough about the staff here, they are great every time I stay.  One hint:  one can hear the sliding doors second floor balcony rooms, but personally I like the balconies on the second floor better than the third floor.  Regardless of the room I will stay often as they are all well-appointed but more importantly this is a clean stay and one hosted by the nicest people.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded November 19, 2013</t>
+  </si>
+  <si>
+    <t>I have occasion to visit the desert.  I never looked forward to the stay until I found this Holiday Inn Express.  The rooms are very nice, quiet and affordable.  I always get the suite with a balcony now.  They offer plenty of room, space to work or just relax inside or out. The staff really goes out of its way.  I stayed yesterday, a Monday.  I was stopped as I went to exit the lobby by a very nice staff person who suggested I "stay in and enjoy the pizza and beer."  I did while watching Monday night football on a big screen.  The night was relaxing and as the staff person suggested "a lot better than going out for dinner in this cold weather."  I cannot say enough about the staff here, they are great every time I stay.  One hint:  one can hear the sliding doors second floor balcony rooms, but personally I like the balconies on the second floor better than the third floor.  Regardless of the room I will stay often as they are all well-appointed but more importantly this is a clean stay and one hosted by the nicest people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r183257821-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>183257821</t>
+  </si>
+  <si>
+    <t>11/02/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel great people</t>
+  </si>
+  <si>
+    <t>A nice hotel to stop and rest if you are on a business trip like me. People are so friendly here that I felt I was home. Breakfast  very good with hot good food. Rooms are clean and quiet. Bathrooms would take an update but they are clean. I would stop again if I am in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>A nice hotel to stop and rest if you are on a business trip like me. People are so friendly here that I felt I was home. Breakfast  very good with hot good food. Rooms are clean and quiet. Bathrooms would take an update but they are clean. I would stop again if I am in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r183111863-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>183111863</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Very pleasant surprise</t>
+  </si>
+  <si>
+    <t>I stayed there one night be mistake. It was the best mistake I'd made in a long time.  I arrived just in time for the Monday night reception.  I enjoyed a football game on a big screen TV in a very comfortable chair surrounded by good food and cold drinks.  Tina kept the food hot and the drinks cold and ready.  No soggy pretzels , stale chips, and flat drinks here... top quality goodies all around!  Luis made the rounds sincerely inquiring from each of us how they might make the experience better.The room was bright and clean.  the bedding soft and comfortable.  Breakfast was hot and ready on time.  I was on my way to my destination wondering how I could manage to divert myself back there again soon.  I really enjoyed myself.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed there one night be mistake. It was the best mistake I'd made in a long time.  I arrived just in time for the Monday night reception.  I enjoyed a football game on a big screen TV in a very comfortable chair surrounded by good food and cold drinks.  Tina kept the food hot and the drinks cold and ready.  No soggy pretzels , stale chips, and flat drinks here... top quality goodies all around!  Luis made the rounds sincerely inquiring from each of us how they might make the experience better.The room was bright and clean.  the bedding soft and comfortable.  Breakfast was hot and ready on time.  I was on my way to my destination wondering how I could manage to divert myself back there again soon.  I really enjoyed myself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r180709276-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>180709276</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>BEST.HOTEL.IN.LANCASTER</t>
+  </si>
+  <si>
+    <t>I have come to this hotel many different times for a variety of reasons. I would recommend this hotel to anyone who is coming to Lancaster! They just remodeled their hotel and it was phenomenal. They recently added a Evening Reception on Monday and Wednesday nights that is completely free to the guests. Their staff is extremely friendly and makes you feel right at home everytime!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r180269842-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>180269842</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Sometimes hotels just "get it right!"</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel.It was not super fancy, ornate, or elegant, but it was extremely clean (possibly the cleanest I've seen) and very well appointed.There was a fridge and micro in the room.Nice wall color and awesome rug pattern.There was no fragrance smell in the hallway or in the rooms.There was a very nice tiled tub/shower area.  Extremely well done.Plenty of counter space in the bathroom.Plenty of outlets.Lots of hot water and good water pressure.The bed was a bit hard for my taste, but it was fine.The bedding was soft and comfortable.The doors to each room looked like outside doors.  Very tastefully done and unique.Lastly...Marissa and Jonathan at the desk were efficient, polite, and adorable.I would definitely stay again.: -)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel.It was not super fancy, ornate, or elegant, but it was extremely clean (possibly the cleanest I've seen) and very well appointed.There was a fridge and micro in the room.Nice wall color and awesome rug pattern.There was no fragrance smell in the hallway or in the rooms.There was a very nice tiled tub/shower area.  Extremely well done.Plenty of counter space in the bathroom.Plenty of outlets.Lots of hot water and good water pressure.The bed was a bit hard for my taste, but it was fine.The bedding was soft and comfortable.The doors to each room looked like outside doors.  Very tastefully done and unique.Lastly...Marissa and Jonathan at the desk were efficient, polite, and adorable.I would definitely stay again.: -)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r173615274-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>173615274</t>
+  </si>
+  <si>
+    <t>08/23/2013</t>
+  </si>
+  <si>
+    <t>HI Experess = :-) Me</t>
+  </si>
+  <si>
+    <t>I was pleaseantly suprised by the Re-model of the hotel.. It looked nothing like the pictures I saw on the web. The rooms were modern and comfortable. I felt safe there. I felt bad for the desk clerk at night "Lewis".. I bugged him for ebvrything from Wake up call, for extra bedding, to toiletries.. I got everything I needed. This is defenatley one of the nicer Holiday Inn Express estblisments I've stayed at. I will stay here whenever I'm in the area.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r169851677-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>169851677</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Lancaster CA</t>
+  </si>
+  <si>
+    <t>I was stranded in Lancaster back in september of last year, and stayed at this hotel. I had the same clerk "Luis" check me in last time. I went back to go to Willow springs raceway and satyed there again.. The same clerk was there and checked me in again, he remembered me by name, and asked about my car.. I was shocked he remembered me.. This made me feel welcomed and Glad I came back.. He informed me that They Have a Willow springs raceway rate that saved me some $$$.. :-) The hotel is freshley remodeled, and clean.. The staff is friendly and attentive to your needs. I would defenatly recomend this hotel.. I've stayed at other places that are more expensive, and not nearly as good.  Thak you Holiday Inn express.... ChuckMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I was stranded in Lancaster back in september of last year, and stayed at this hotel. I had the same clerk "Luis" check me in last time. I went back to go to Willow springs raceway and satyed there again.. The same clerk was there and checked me in again, he remembered me by name, and asked about my car.. I was shocked he remembered me.. This made me feel welcomed and Glad I came back.. He informed me that They Have a Willow springs raceway rate that saved me some $$$.. :-) The hotel is freshley remodeled, and clean.. The staff is friendly and attentive to your needs. I would defenatly recomend this hotel.. I've stayed at other places that are more expensive, and not nearly as good.  Thak you Holiday Inn express.... ChuckMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r169402177-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>169402177</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Long term stay</t>
+  </si>
+  <si>
+    <t>Husband and I were flooded out of our home so we have stayed here for last seven weeks. It's a wonderful second home. Beautiful room, great breakfast. But the staff is fantastic and courteous. Watching them work when a crowd arrives...it's like an efficient machine. I will be glad to move back home but I will miss this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r163623157-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>163623157</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay in Lancaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for one night during my brother's graduation from WCBC. Tip: they give discounts to families of WCBC graduates if you hook directly with hotel. Rooms were clean, modern, and lots of free parking available. We stayed with our pet and paid $15 I believe. Free breakfast was okay. Eggs, pastries, and coffee. About 4 miles from downtown. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r157546305-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>157546305</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>Far, far better than expected, thanks.</t>
+  </si>
+  <si>
+    <t>It's new.  It's away from the freeway a bit.  The rooms are nicely sized, have everything expected and are nicely decorated (love the bathroom amenities).  Room lighting was good,   I liked all the outlets.Bed was comfortable, pillows okay.  Wifi was fast.  The room heater/cooler was loud and seemed to come on at random times.  TV selection was pretty lame.Shower was hot, cool shower head.  Pressure was *meh*.   Towels very *meh*.Coffee was decent and supplies were good.  Breakfast in the morning was decent, though they let the OJ run out with an hour to go.Free parking.I would have liked the bill under my door.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>LancasterGM, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded April 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2013</t>
+  </si>
+  <si>
+    <t>It's new.  It's away from the freeway a bit.  The rooms are nicely sized, have everything expected and are nicely decorated (love the bathroom amenities).  Room lighting was good,   I liked all the outlets.Bed was comfortable, pillows okay.  Wifi was fast.  The room heater/cooler was loud and seemed to come on at random times.  TV selection was pretty lame.Shower was hot, cool shower head.  Pressure was *meh*.   Towels very *meh*.Coffee was decent and supplies were good.  Breakfast in the morning was decent, though they let the OJ run out with an hour to go.Free parking.I would have liked the bill under my door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r157425957-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>157425957</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Absolutely the BEST place to stay in Lancaster!</t>
+  </si>
+  <si>
+    <t>After staying is Antelope Valley hotels every year for the past 15 years, I have finally found the best hotel in the valley!  I've been staying here for the past 4 years and could not find one thing to be critical about.  The staff is extremely helpful, the entire property in clean and well kept and you will not find a better 1-room suite in the valley, especially for the price!  This is a quality hotel that is far superior to its competition... I can say that because I've stayed in just about every hotel around.  You can pay more elsewhere, but you WILL NOT get the service, quality and cleanliness you get at this Holiday Inn Express!  They've found a loyal customer in me!!MoreShow less</t>
+  </si>
+  <si>
+    <t>After staying is Antelope Valley hotels every year for the past 15 years, I have finally found the best hotel in the valley!  I've been staying here for the past 4 years and could not find one thing to be critical about.  The staff is extremely helpful, the entire property in clean and well kept and you will not find a better 1-room suite in the valley, especially for the price!  This is a quality hotel that is far superior to its competition... I can say that because I've stayed in just about every hotel around.  You can pay more elsewhere, but you WILL NOT get the service, quality and cleanliness you get at this Holiday Inn Express!  They've found a loyal customer in me!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r152665379-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>152665379</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>The breakfast was great</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at the Holiday Inn.  The room was clean and comfortable and the hotel staff was so helpful. The breakfast was better than what I had previously experienced at other medium priced hotels....they even have a machine that will make pancakes for you.  The price was good and the value was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>LancasterGM, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at the Holiday Inn.  The room was clean and comfortable and the hotel staff was so helpful. The breakfast was better than what I had previously experienced at other medium priced hotels....they even have a machine that will make pancakes for you.  The price was good and the value was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r145994834-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>145994834</t>
+  </si>
+  <si>
+    <t>11/22/2012</t>
+  </si>
+  <si>
+    <t>Good Value, clean room</t>
+  </si>
+  <si>
+    <t>We booked this through Priceline and were pleased our "3 star" choice ended up at a Holiday Inn Express.No surprises and just what one would expect from this chain.Room was comfortable and clean.  We were tired after a long day on the road and our check in could not have gone better.  Friendly greeting, accommodating staff.We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>LancasterGM, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2012</t>
+  </si>
+  <si>
+    <t>We booked this through Priceline and were pleased our "3 star" choice ended up at a Holiday Inn Express.No surprises and just what one would expect from this chain.Room was comfortable and clean.  We were tired after a long day on the road and our check in could not have gone better.  Friendly greeting, accommodating staff.We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r139610213-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>139610213</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Outstanding Stay</t>
+  </si>
+  <si>
+    <t>I have stayed here before and looked forward to a return.  The staff here is still doing a great job greeting their guests, helpful, cheerful and pleasant to converse with. Breakfast area clean and inviting to come into, and I noticed a slight change in the menu which was great.  Out on time and hot. Same with the rest of the motel, clean and inviting to enter.  Even though my check-in room was changed when signing in, they still took the time to start up the A/C to cool the room down by the time I returned after doing errands. Internet speeds were good for my evening work.Great job folks, and look forward to returning to this spot when I work up in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>LancasterGM, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded September 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed here before and looked forward to a return.  The staff here is still doing a great job greeting their guests, helpful, cheerful and pleasant to converse with. Breakfast area clean and inviting to come into, and I noticed a slight change in the menu which was great.  Out on time and hot. Same with the rest of the motel, clean and inviting to enter.  Even though my check-in room was changed when signing in, they still took the time to start up the A/C to cool the room down by the time I returned after doing errands. Internet speeds were good for my evening work.Great job folks, and look forward to returning to this spot when I work up in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r139090059-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>139090059</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>Lancaster, CA HIE</t>
+  </si>
+  <si>
+    <t>The Staff here is awesome, Check in was a breeze. The roos were clean, and the staff helped find things to do in the city. I feelt like they went above and beyond to make sure I did't need anything.. The breakfast was better that I anticipated. They had fresh fruit, Bacon and eggs. I was expecting a regular continental breakfast, this was a pleasant suprise.. I was there for three days until my car was fixed and I was able to continue with my trip, But I am glad I ended up at this hotel.. If I ever need to say in that area again I will go the the Holiday Inn Express in Lancaster Ca!MoreShow less</t>
+  </si>
+  <si>
+    <t>The Staff here is awesome, Check in was a breeze. The roos were clean, and the staff helped find things to do in the city. I feelt like they went above and beyond to make sure I did't need anything.. The breakfast was better that I anticipated. They had fresh fruit, Bacon and eggs. I was expecting a regular continental breakfast, this was a pleasant suprise.. I was there for three days until my car was fixed and I was able to continue with my trip, But I am glad I ended up at this hotel.. If I ever need to say in that area again I will go the the Holiday Inn Express in Lancaster Ca!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r127316526-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>127316526</t>
+  </si>
+  <si>
+    <t>04/05/2012</t>
+  </si>
+  <si>
+    <t>I've stayed many times... and will return.</t>
+  </si>
+  <si>
+    <t>Due to work and weather conditions which prevented travel home, I've stayed in this hotel many times over the last few years and will return. It's fairly new, very clean and staff have gone above-and-beyond when asked for any kind of help. It has recently (?) gone under new ownership but still maintains all the service and quality that has brought me back again and again. The rooms are as good or better than would be expected in a new HI Express... very clean and quiet even though close to the freeway. I'm usually pretty tired when I check in and always feel comfortable when I get to my well-appointed room and always have a good sleep there. I've never eaten the available breakfast so can't comment on that amenity. I'd love it even more if the room rate was cut in half (ha ha!)... but hey, it's 2012 and the cost is about the same or better than the other nice places in Lancaster. Being familiar with the area, I doubt I would stay in any of the budget places these days.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>LancasterGM, General Manager at Holiday Inn Express Lancaster, responded to this reviewResponded May 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2012</t>
+  </si>
+  <si>
+    <t>Due to work and weather conditions which prevented travel home, I've stayed in this hotel many times over the last few years and will return. It's fairly new, very clean and staff have gone above-and-beyond when asked for any kind of help. It has recently (?) gone under new ownership but still maintains all the service and quality that has brought me back again and again. The rooms are as good or better than would be expected in a new HI Express... very clean and quiet even though close to the freeway. I'm usually pretty tired when I check in and always feel comfortable when I get to my well-appointed room and always have a good sleep there. I've never eaten the available breakfast so can't comment on that amenity. I'd love it even more if the room rate was cut in half (ha ha!)... but hey, it's 2012 and the cost is about the same or better than the other nice places in Lancaster. Being familiar with the area, I doubt I would stay in any of the budget places these days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r125608605-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>125608605</t>
+  </si>
+  <si>
+    <t>03/04/2012</t>
+  </si>
+  <si>
+    <t>Just Passin thru!</t>
+  </si>
+  <si>
+    <t>This site is fairly new. The mgmt. and staff are friendly etc. but this is my chief complaint.  Their breakfast is terrible and there is little variety. No fruit, something that looks likes bacon and watery scrambled eggs, coffee watered down. I know times are hard everywhere so we strech everything, but this is ridiculous.  Get breakfast somewhere else.  Yeah, I know,...at least the rooms were nice...a/c doesn't work and you can't open a window for fresh air.  Good thing i'm just passin thru!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Lancaster, responded to this reviewResponded March 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2012</t>
+  </si>
+  <si>
+    <t>This site is fairly new. The mgmt. and staff are friendly etc. but this is my chief complaint.  Their breakfast is terrible and there is little variety. No fruit, something that looks likes bacon and watery scrambled eggs, coffee watered down. I know times are hard everywhere so we strech everything, but this is ridiculous.  Get breakfast somewhere else.  Yeah, I know,...at least the rooms were nice...a/c doesn't work and you can't open a window for fresh air.  Good thing i'm just passin thru!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r125063812-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>125063812</t>
+  </si>
+  <si>
+    <t>02/22/2012</t>
+  </si>
+  <si>
+    <t>Good Service - Clean Hotel</t>
+  </si>
+  <si>
+    <t>Is it a "wow" experience??? No... but it's a very functional hotel with very good guest service (front desk), good hospitable house keeping team, free internet (important for me), clean rooms, and a good breakfast.  My family and I come  once a year for my father-in-laws birthday and always at the same time of year when this community host a huge soccer tournament where all hotels are full.  This is our second or third year here and they do an excellent job keeping the noise level under control when the hotel is full of kids.  We'll be back again next year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r116244455-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>116244455</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Our group found this hotel just perfect</t>
+  </si>
+  <si>
+    <t>We had a group of 18 and 9 rooms! We made our reservations at this hotel eight months before our July stay. We arrived and our reservations were perfect. Check-in was great and Brian was so helpful. The GM, Helen, was helpful, welcoming, and thankful for our stay. The wonderful night of rest helped make our conference even better.Without a question, this is the best stay in Lancaster.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r115798101-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>115798101</t>
+  </si>
+  <si>
+    <t>07/26/2011</t>
+  </si>
+  <si>
+    <t>We would stay here again</t>
+  </si>
+  <si>
+    <t>We were fortunate to get our team in here on a busy tournament weekend.  The fields are 5 minutes away from the Big 8 softball complex where we would be spending much of the weekend.  The hotel was clean, friendly staff, a small pool and has good breakfest selection. We would stay here again. Only complaints are a very slow elevator and broken chairs at the pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r61855189-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>61855189</t>
+  </si>
+  <si>
+    <t>04/18/2010</t>
+  </si>
+  <si>
+    <t>Clean, pleasant experience</t>
+  </si>
+  <si>
+    <t>Was pleasantly surprised by how nice this hotel was.  After a long day at the soccer fields, the room was exceptionally clean and comfortable and close to several restaurants.  The amenities were perfect, it was quiet and we were thoroughly convinced that if we ever have to stay in Lancaster again that we will come back!</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r12733815-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>12733815</t>
+  </si>
+  <si>
+    <t>01/17/2008</t>
+  </si>
+  <si>
+    <t>Great for business travel</t>
+  </si>
+  <si>
+    <t>The previous reviews must be for the wrong place and there is no river by the hotel.  This hotel was great for business travel, they have internet, breakfast in the morning and the rooms are nice and clean.  I did not have bedbugs like someone had noted!  There is not much to do in the area of the hotel, I would suggest driving south on the 14 into Palmdale for better restaurants etc.  Overall it was a good stay.</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r4570431-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>4570431</t>
+  </si>
+  <si>
+    <t>03/01/2006</t>
+  </si>
+  <si>
+    <t>don't let the bedbugs bite</t>
+  </si>
+  <si>
+    <t>On the surface, this seems like a clean place.  After staying a couple of weeks on business, I noticed red welts on my legs.I talked to a couple of other co-workers who had stayed here previously, and had the same thing happen to them.  We determined it was probably bed bugs.  I don't have allergic reactions that I know of.The staff is friendly, and they have the complimentary Continental breakfast like most.It's in a fairly quiet area, but there's not much to do within several miles.  Restaurants are few and far between.  You'll have to head up the road to Palmdale once you get tired of the Marie Callendar's right next door.Rates in the area are all fairly expensive.  120 bucks for a night at a Holiday Inn Express in the middle of nowhere caught me by surpise.  You won't get find much better unless you stay at the Motel 6.A few things to do?  You'll find a Harley dealer, a minor league ballpark, and a motocross racetrac all a few exits down.MoreShow less</t>
+  </si>
+  <si>
+    <t>On the surface, this seems like a clean place.  After staying a couple of weeks on business, I noticed red welts on my legs.I talked to a couple of other co-workers who had stayed here previously, and had the same thing happen to them.  We determined it was probably bed bugs.  I don't have allergic reactions that I know of.The staff is friendly, and they have the complimentary Continental breakfast like most.It's in a fairly quiet area, but there's not much to do within several miles.  Restaurants are few and far between.  You'll have to head up the road to Palmdale once you get tired of the Marie Callendar's right next door.Rates in the area are all fairly expensive.  120 bucks for a night at a Holiday Inn Express in the middle of nowhere caught me by surpise.  You won't get find much better unless you stay at the Motel 6.A few things to do?  You'll find a Harley dealer, a minor league ballpark, and a motocross racetrac all a few exits down.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2030,4036 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>162</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>215</v>
+      </c>
+      <c r="X21" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>223</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>257</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>269</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>275</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>281</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>283</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>292</v>
+      </c>
+      <c r="X34" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>296</v>
+      </c>
+      <c r="J35" t="s">
+        <v>297</v>
+      </c>
+      <c r="K35" t="s">
+        <v>298</v>
+      </c>
+      <c r="L35" t="s">
+        <v>299</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>300</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>301</v>
+      </c>
+      <c r="X35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J36" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>300</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>301</v>
+      </c>
+      <c r="X36" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" t="s">
+        <v>312</v>
+      </c>
+      <c r="K37" t="s">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s">
+        <v>314</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>316</v>
+      </c>
+      <c r="X37" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" t="s">
+        <v>322</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>324</v>
+      </c>
+      <c r="X38" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K39" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s">
+        <v>331</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>332</v>
+      </c>
+      <c r="X39" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>323</v>
+      </c>
+      <c r="O40" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>340</v>
+      </c>
+      <c r="X40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" t="s">
+        <v>346</v>
+      </c>
+      <c r="L41" t="s">
+        <v>347</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>348</v>
+      </c>
+      <c r="X41" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" t="s">
+        <v>352</v>
+      </c>
+      <c r="K42" t="s">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s">
+        <v>354</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>355</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>340</v>
+      </c>
+      <c r="X42" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>359</v>
+      </c>
+      <c r="K43" t="s">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s">
+        <v>361</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>355</v>
+      </c>
+      <c r="O43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>348</v>
+      </c>
+      <c r="X43" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>363</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>364</v>
+      </c>
+      <c r="J44" t="s">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s">
+        <v>367</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>368</v>
+      </c>
+      <c r="O44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>369</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>370</v>
+      </c>
+      <c r="J45" t="s">
+        <v>371</v>
+      </c>
+      <c r="K45" t="s">
+        <v>372</v>
+      </c>
+      <c r="L45" t="s">
+        <v>373</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>374</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" t="s">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s">
+        <v>379</v>
+      </c>
+      <c r="L46" t="s">
+        <v>380</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>381</v>
+      </c>
+      <c r="O46" t="s">
+        <v>98</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>382</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>383</v>
+      </c>
+      <c r="J47" t="s">
+        <v>384</v>
+      </c>
+      <c r="K47" t="s">
+        <v>385</v>
+      </c>
+      <c r="L47" t="s">
+        <v>386</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>387</v>
+      </c>
+      <c r="O47" t="s">
+        <v>162</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K48" t="s">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s">
+        <v>393</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>368</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>394</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>395</v>
+      </c>
+      <c r="J49" t="s">
+        <v>396</v>
+      </c>
+      <c r="K49" t="s">
+        <v>397</v>
+      </c>
+      <c r="L49" t="s">
+        <v>398</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>400</v>
+      </c>
+      <c r="J50" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" t="s">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s">
+        <v>403</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>404</v>
+      </c>
+      <c r="O50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>405</v>
+      </c>
+      <c r="X50" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>409</v>
+      </c>
+      <c r="J51" t="s">
+        <v>410</v>
+      </c>
+      <c r="K51" t="s">
+        <v>411</v>
+      </c>
+      <c r="L51" t="s">
+        <v>412</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>404</v>
+      </c>
+      <c r="O51" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>405</v>
+      </c>
+      <c r="X51" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" t="s">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s">
+        <v>418</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>419</v>
+      </c>
+      <c r="O52" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>420</v>
+      </c>
+      <c r="X52" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>424</v>
+      </c>
+      <c r="J53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K53" t="s">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>427</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>428</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>429</v>
+      </c>
+      <c r="X53" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J54" t="s">
+        <v>434</v>
+      </c>
+      <c r="K54" t="s">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s">
+        <v>436</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>419</v>
+      </c>
+      <c r="O54" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>437</v>
+      </c>
+      <c r="X54" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>440</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>441</v>
+      </c>
+      <c r="J55" t="s">
+        <v>442</v>
+      </c>
+      <c r="K55" t="s">
+        <v>443</v>
+      </c>
+      <c r="L55" t="s">
+        <v>444</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>419</v>
+      </c>
+      <c r="O55" t="s">
+        <v>162</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>437</v>
+      </c>
+      <c r="X55" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>447</v>
+      </c>
+      <c r="J56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K56" t="s">
+        <v>449</v>
+      </c>
+      <c r="L56" t="s">
+        <v>450</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>451</v>
+      </c>
+      <c r="O56" t="s">
+        <v>162</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>452</v>
+      </c>
+      <c r="X56" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>455</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>456</v>
+      </c>
+      <c r="J57" t="s">
+        <v>457</v>
+      </c>
+      <c r="K57" t="s">
+        <v>458</v>
+      </c>
+      <c r="L57" t="s">
+        <v>459</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>451</v>
+      </c>
+      <c r="O57" t="s">
+        <v>162</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>460</v>
+      </c>
+      <c r="X57" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>463</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>464</v>
+      </c>
+      <c r="J58" t="s">
+        <v>465</v>
+      </c>
+      <c r="K58" t="s">
+        <v>466</v>
+      </c>
+      <c r="L58" t="s">
+        <v>467</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>451</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>468</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>469</v>
+      </c>
+      <c r="J59" t="s">
+        <v>470</v>
+      </c>
+      <c r="K59" t="s">
+        <v>471</v>
+      </c>
+      <c r="L59" t="s">
+        <v>472</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>473</v>
+      </c>
+      <c r="O59" t="s">
+        <v>90</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>475</v>
+      </c>
+      <c r="J60" t="s">
+        <v>476</v>
+      </c>
+      <c r="K60" t="s">
+        <v>477</v>
+      </c>
+      <c r="L60" t="s">
+        <v>478</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>473</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>479</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>480</v>
+      </c>
+      <c r="J61" t="s">
+        <v>481</v>
+      </c>
+      <c r="K61" t="s">
+        <v>482</v>
+      </c>
+      <c r="L61" t="s">
+        <v>483</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>484</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>485</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>486</v>
+      </c>
+      <c r="J62" t="s">
+        <v>487</v>
+      </c>
+      <c r="K62" t="s">
+        <v>488</v>
+      </c>
+      <c r="L62" t="s">
+        <v>489</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>490</v>
+      </c>
+      <c r="O62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52952</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>491</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>492</v>
+      </c>
+      <c r="J63" t="s">
+        <v>493</v>
+      </c>
+      <c r="K63" t="s">
+        <v>494</v>
+      </c>
+      <c r="L63" t="s">
+        <v>495</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>496</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_367.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_367.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>BrandonTaylorN</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The front desk clerks are all nice, and the property has nicely appointed rooms with a very comfortable bed. I did not, however, appreciate the impatient housekeeping that disturbed me both mornings for cleaning, even though there was a do not disturb sign on the door. The first time, right at 11, and the day I checked out at was at 10:40 (check-out time is 11). Same lady, too. That was not appreciated. Also, the pillow cases were NOT changed after the prior guests left, as they stank of B.O. on my first night. Fortunately, I usually bring my own pillow, but that makes me question the cleaning quality. Am I staying on used sheets when I go there?  (I stay frequently) If the pillow cases weren't changed, chances are the sheets weren't either. I even put the card requesting fresh linens on the bed in plain sight -- of course, the sheets were not changed (surprised), because I put a small pen dot on each sheet and pillow case to test my theory; the dots were still there. SHAME!! Other than that, the value can't be beat, and the location is advantageous for me. Hopefully, a management team member sees my review and addresses this.More</t>
   </si>
   <si>
+    <t>Steven w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r581676535-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>The good and the bad, yes still 5 stars with negatives. Ok start with the bad these tend to be out of the staffs control. 1. No Holiday Inn Express on Google Maps I had to add it. 2. Trip advisers had it labeled as Pet Friendly even when I called I got confirmation that it was pet friendly from the reservation hotline not the actual hotel, however when I arrived a 6 hours later this was not the case. While I filled out the documents I noticed that they didn't have pet paper work which they normally do along with a fee all normal. When I brought this to the receptionist attention and was informed that they didn't allow pets I show they trip adviser, explained the reason picked this hotel, and the receptionist had to contact the night manager and after a short phone call. I was informed that to accommodate my need I would have to pay a huge pet fee (300.00) for unauthorized pets. 3. My cable was out not required for me but aheads up would have been nice. This is where the staff turned the Bad in to the good, they ensured I had everything I needed and knew the local area rather well. I literally didn't need my GPS during the stay because the directions were that good and easy to follow. The entire staff so far has made it feel like they...The good and the bad, yes still 5 stars with negatives. Ok start with the bad these tend to be out of the staffs control. 1. No Holiday Inn Express on Google Maps I had to add it. 2. Trip advisers had it labeled as Pet Friendly even when I called I got confirmation that it was pet friendly from the reservation hotline not the actual hotel, however when I arrived a 6 hours later this was not the case. While I filled out the documents I noticed that they didn't have pet paper work which they normally do along with a fee all normal. When I brought this to the receptionist attention and was informed that they didn't allow pets I show they trip adviser, explained the reason picked this hotel, and the receptionist had to contact the night manager and after a short phone call. I was informed that to accommodate my need I would have to pay a huge pet fee (300.00) for unauthorized pets. 3. My cable was out not required for me but aheads up would have been nice. This is where the staff turned the Bad in to the good, they ensured I had everything I needed and knew the local area rather well. I literally didn't need my GPS during the stay because the directions were that good and easy to follow. The entire staff so far has made it feel like they are truly here for my comfort, hell I still have a few more nights and I am looking forward to them.More</t>
   </si>
   <si>
+    <t>julzzprior</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r575050137-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>We experienced an amazing journey from British Columbia, Canada to California coastal route.  We had great lodging, fun loving Americans throughout Washington,  Oregon and California. We stayed in Holiday Inn Express in the Redwoods!   Helpful staff.  We are joining family in Palm Springs and returning back to   Canada.  I joined membership so we could receive membership privileges.  We did not check website. ..we drove from Monterey to Palmdale on the advice of a very helpful gas attendant.  Avoiding LA .  The Palmdale staff knew about the hotel construction watershut down from 9am to 5pm ,  however decided not to advise us. Palmdale staff could not receive our membership number?  Redwood holiday express had no problems.  We arrive in our room and we saw the water advisory notice on our bed.  I telephoned front desk...asked what the?...I was told they flipped. ..? Not sure what this means?  Staff were going to put notice under our door in ten minutes! no cold water in room either.  I walked directly to front desk and a notification of water shut off was now posted.  I said..this wasn't here 10 minutes ago?  Front staff agreed :  just put the sign out!  We paid full room rate for a Sunday.  I showed my displeasure, stating it was a scam and front staff smiled!   No more Holiday Inn for us.More</t>
   </si>
   <si>
+    <t>xyz1324</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r549745633-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>Typical HI express hotel with usual breakfast, nothing fancy. Hotel and rooms where clean and well kept. Staff was friendly. Not much walking distance from hotel, would not walk around at night. Outdoor swimming pool.More</t>
   </si>
   <si>
+    <t>X8817NWvictorf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r540951923-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>Nice, convenient, clean, affordable and easily accessible, near to major highways. It's easy to make reservations and customer service is welcoming. Rooms clean daily, free breakfast and special dinner offered on Mondays and Wednesdays.More</t>
   </si>
   <si>
+    <t>q52y380</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r538620560-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Hotel right off freeway, eatery nearby,  nice clean good size room/sofa bed in separate room.  Breakfast included, not bad at all.  very small pool, did not use.  Price is higher than hotels nearby but those other hotels/motels look dated.More</t>
   </si>
   <si>
+    <t>frankacosta2002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r522333918-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>We stayed here 2 nights while we visited family in the area.  There was a Moldy/mildew smell when you entered the hotel.  The wife commented it smelled as if it was flooded or something.  Smell was also in the room.  I realize Lancaster is in the desert, but I think all the ac in the hotel is making it smell bad.  Staff was friendly and room was clean and comfortable.  If it wasn't for the smell, it would have been a nice stay.  I would have not expected this from this hotel chain.More</t>
   </si>
   <si>
+    <t>Bob L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r515557918-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>Clean and relatively quiet. Staff was friendly. Breakfast was okay, but was being restocked so I wasn't able to take full advantage. Still, a very good visit. We'd stay here again if we make it back to Lancaster.More</t>
   </si>
   <si>
+    <t>durk s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r504179831-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -388,6 +415,9 @@
   </si>
   <si>
     <t>its not to far off freeway,, real quiet on a dead end street, hotel check-in was fast and easy. room was perfect no problems,, the mattress was one of the best i have slept on in a while. seemed popular. which is a good sign that it is a good hotel as there are many hotels in lancaster.More</t>
+  </si>
+  <si>
+    <t>GT G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r475451750-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
@@ -437,6 +467,9 @@
 Hotel was probably recently upgraded, and maybe we were...Hotel, Room, Breakfast was in good condition. We had a two room suite and another room for one night. The bed in the one room was not a king not even a Queen but a Double which is NOT what you could or would or we expect(ed). We never had anything like this, years ago saw a motel6 that had better options, when we were a family of three and wanted at least two separate beds. Have to admit we booked over one of these websites and not directly with the hotel. But it wouldn't have changed much, having looked at the room choices on their website later that night. Btw at check-in the clerk claimed the hotel was booked out (but parking lot was very empty at 10pm when we arrived.  Overall and despite the hotel being in good condition and breakfast being decent I can not recommend this. A small room without anything and the small bed (much below the rest of the standard of the rest of the hotel). Why coming back or booking here?PS:Pool is a one star hotel standard pool I'd say (small and just very plain).PS2:The two room suite we got however was huge but also ... kind of empty. One room with two doubles, the second room was a lot of unused space without amenities but a sofa sleeper. PS3:Hotel was probably recently upgraded, and maybe we were happy to get upgraded rooms, still price was rather high and in hindsight not appropriate.More</t>
   </si>
   <si>
+    <t>sndovale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r471995109-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -464,6 +497,9 @@
     <t>We stay at this chain often because the rooms are clean and modern. We like the free internet and the breakfast. I like to start the day with coffee and a newspaper. It's all here and reasonably priced.More</t>
   </si>
   <si>
+    <t>Dora R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r471560223-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -482,6 +518,9 @@
     <t>I stayed for a weekend with my family, I was very impressed of how clean our room was, also the staff was very welcoming. I recommend Holiday Inn Express Lancaster 100%! It's also very close to restaurants, very convenient. I'm truly happy with my stayed. More</t>
   </si>
   <si>
+    <t>mlcohen987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r453066778-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -509,6 +548,9 @@
     <t>I stay here a dozen times a year and have done so for the last 3+ years.   This is a great hotel with attentive staff and a convenient location, especially if you are racing at Willow Springs International Raceway.   The Manager, Rosa and her staff take good care of the hotel keeping it clean and are attentive to your needs.   HIGHLY RECOMMENDED!More</t>
   </si>
   <si>
+    <t>Roni W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r446970489-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -536,6 +578,9 @@
     <t>Before i booked i called and asked if i could get a suite with my employee rate she assured me i could, at check in they lied and charged me extra for my suite. The first suite was dirty hair on the bed pillow cases were used and sheets were dirty. I asked were there any smoking rooms i was told no so all smoking was done outside in the designated smoking area which they had a problem with! I am a housekeeper so I personally cleaned the suite before I left ! they charged me $200 for a smoking fee when no one was smoking and the manager I spoke was very nasty about it and still hasn't called me back after I left her a message worst hotel ever never againMore</t>
   </si>
   <si>
+    <t>Patty M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r442254018-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -563,6 +608,9 @@
     <t>We were caught in the Thanksgiving traffic &amp; decided to spend the night after dropping off my granddaughter at college.  Reservation was processed quickly &amp; night clerk was so helpful and gave us toothbrushes &amp; toothpaste.  The bed were very comfortable &amp; their breakfast was hot &amp; fresh. We would stay here again. More</t>
   </si>
   <si>
+    <t>Mildred H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r399245274-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -590,6 +638,9 @@
     <t>This was a great hotel for my family. We were traveling with two little ones. The room was large and very comfortable. Very accessible for someone handicapped. The room was super clean and well kept up. Very helpful staff. Inexpensive luxury!More</t>
   </si>
   <si>
+    <t>Manuel A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r396415789-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -617,6 +668,9 @@
     <t>kids  had  a good time. great ac and beds. t v was good for kids. beds a little to soft for my taste. Overall great price and location (right of the 14). a couple of gas stations around and a good dinerMore</t>
   </si>
   <si>
+    <t>WillemvdKraats</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r393357216-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -641,6 +695,9 @@
     <t>For a visit to Edwards Air force base, book the tour!, we needed a place to sleep. Again we were not disappointed by the Holiday Inn Express hotel, nice spacy rooms and a great breakfast. Restaurants and shopping around and a 30 minute drive to the base!More</t>
   </si>
   <si>
+    <t>Cynthia K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r373838678-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -668,6 +725,9 @@
     <t>Great, quiet, clean location. We arrived in town a little earlier than expected, and a bit tired due to an early flight into LAX and a long drive up due to traffic.  Although the official check in time was not for another 3 hours, the staff was able to get us into a room quickly and easily.  This was greatly appreciated.  My son and I were visiting family in town, and while we didn't take advantage of all the tourist amenities, we very much enjoyed our stay.  Room was cleaned promptly and well, and the front desk staff were terrific any time we had questions.  It is definitely on our list for future visits.More</t>
   </si>
   <si>
+    <t>chipdesigner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r367398220-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -692,6 +752,9 @@
     <t>Let's start with the good: The staff at this hotel was very nice and accommodating. We were able to use the breakfast area for a team dinner with food that we brought in from outside. The room was a good size with a very large, flat screen TV. Keurig coffee maker with pods included. The bathroom area was quite large with high quality Bath &amp; Body Works shampoo and conditioner. And a large refrigerator (mid-size - bigger than the usual mini-fridge). Mattresses were very firm - so a good night sleep was had by all.Now the bad:The walls are thin and there is no sound insulation on the doors, so we heard everyone walking and talking outside in the hall.The sink in the bathroom isn't aligned to the mirror - good luck shaving when you are offset (makeup too?).The fitness center is very spartan, with one old exercise bike (missing the pedal straps), an old rowing machine, and two treadmills.The breakfast is very extensive, but the quality was low on some of the items. But stick to the oatmeal and yogurt and you'll be fine. Bad coffee - but Starbucks is nearby.More</t>
   </si>
   <si>
+    <t>Armando S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r357348909-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -710,6 +773,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>fairgirl59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r311002041-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -728,6 +794,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Confederate64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r293937389-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -746,6 +815,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>JosephDonahue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r281112863-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -764,6 +836,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Ifurita</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r276304765-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -779,6 +854,9 @@
     <t xml:space="preserve">Color me sheepish. I arrived here with low expectations because I'd heard the area was a bit rough, but the outstanding reception I received from Melissa threw all misgivings aside. The building layout is typical for HIX in CA. My room was spacious and clean: familiar HIX quality. Freeway access is easy, but of course that translates to road noise. Not the worst, but if you face away from it, you'll be on the west side (subject to the relentless Mojave sun). </t>
   </si>
   <si>
+    <t>Grambow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r267617837-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -794,6 +872,9 @@
     <t xml:space="preserve">Clean comfortable rooms. New hotel. Beautifully designed hotel and modern touches. We enjoyed our suite. Staff was very friendly. We will stay here again when visiting our family in California. Breakfast was great and I loved the design and layout of the room. </t>
   </si>
   <si>
+    <t>kspast2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r267443412-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -812,6 +893,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>John O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r244593403-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -830,6 +914,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Tdmoor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r225574495-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -848,6 +935,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>SouthTXtraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r219704827-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -866,6 +956,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Howard B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r209665874-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -884,6 +977,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>mps7777777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r209603865-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -896,6 +992,9 @@
     <t>Well kept Holiday inn. Seems to be family run and thats why its so clean and kept up. Out of the way but good restaurants are in the area. Nice breakfast and sitting area. Laundry facility is available in hotel. Only negative is the workout room only 4 pieces of equipment.</t>
   </si>
   <si>
+    <t>KaceyK603</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r202400293-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -921,6 +1020,9 @@
   </si>
   <si>
     <t>The staff was extremely nice and helpful with room keys that wouldn't work and suggesting local restaurants. The bed was very comfortable. Everything was clean. I liked how they provided plastic water glasses in the room instead of glass ones (more hygienic). BUT I ran into a major issue our last morning there. I got two little cartons of fat free milk out of their mini fridge in the breakfast area. I sat down, took a bite of toast, then opened one and took a huge swig of it. IT WAS ROTTEN. I got up and ran to the garbage can and spit it out. Told the breakfast attendant and she and her boss went and looked at all the milks in the fridge. They were ALL past their date. I didn't even look at the date since the lady refilled the fridge every morning. LESSON LEARNED. Took me brushing my teeth three times to finally get the nasty taste out of my mouth.More</t>
+  </si>
+  <si>
+    <t>Sugarsht</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r195808022-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
@@ -952,6 +1054,9 @@
 There was only one hiccup in the beginning of our stay with the tv.  They have Direct TV, but no box.  We couldn't get the tv to change channels at first and called down to the front desk.  They told us to unplug the tv and plug it in again to reset it.  Still didn't change channels, even with moving the remote around.  Called down again, and a guy said he would be there to fix it.  When he came in, he showed us a tiny sensor right below the tv that has to be connected to the stand.  It is pushed on there and stays via a sticker of some sort.  It worked, but less than a few minutes later, the piece came away from the tv again, and we had to get up and push it back on.  I ended up...We stayed here for a soccer tournament.  This is a new hotel and they have done a great job making sure that they escaped from the usual Lancaster feel of hotels in the area.  The room was clean and welcoming.  The lobby was nicely updated with a big screen tv with couches and chairs.  People were hanging out watching the Olympics while relaxing on the chairs.  The breakfast in the morning had a nice selection of cereal, fruit, pancakes, little omlettes with cheese or scrambled eggs, and warm cinnamon rolls.  They even had yogurt in a fridge.There was only one hiccup in the beginning of our stay with the tv.  They have Direct TV, but no box.  We couldn't get the tv to change channels at first and called down to the front desk.  They told us to unplug the tv and plug it in again to reset it.  Still didn't change channels, even with moving the remote around.  Called down again, and a guy said he would be there to fix it.  When he came in, he showed us a tiny sensor right below the tv that has to be connected to the stand.  It is pushed on there and stays via a sticker of some sort.  It worked, but less than a few minutes later, the piece came away from the tv again, and we had to get up and push it back on.  I ended up pulling the wire more from the back of the tv to give it more slack so that it wouldn't be pulled off.  That worked and we never had an issue with the tv again.Overall, we were pleased with our stay and would definitely stay here again.  The bed was comfy, the room was quiet, and this hotel is close to the fields.More</t>
   </si>
   <si>
+    <t>Nebtravler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r194758430-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -970,6 +1075,9 @@
     <t>We have family in Lancaster so spend a few days when we can. This year we were traveling with our dogs and saw that this hotel had rooms set aside for pets. They do charge for pets but not as much as some. This is a newer hotel and the rooms were clean, beautiful, and restful. We would certainly stay again even without our pets! The location is perfect for us as well. RecommendMore</t>
   </si>
   <si>
+    <t>expatNYer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r191248204-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -997,6 +1105,9 @@
     <t>Stayed at the Holiday Inn Express in Lancaster while on a business trip. The front desk and cleaning employees were all friendly and extremely helpful, my room was large and comfortable, and the hotel was modern and clean. Recommend.More</t>
   </si>
   <si>
+    <t>Sal F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r186244394-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1019,6 +1130,9 @@
   </si>
   <si>
     <t>All Around Excellent. The service was very good. Hotel employees Michelle and Sabrina at the front dest made a difference in my stay.  The room was very clean. The location of the hotel was centrally located right off the 14. The king size bed was very comfortable. I will diffently stay here again if the opportunity presented itself again.  Sal F.More</t>
+  </si>
+  <si>
+    <t>bjkerr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r185303250-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
@@ -1046,6 +1160,9 @@
     <t>I enjoyed my stay very much from check in to check out the room was very clean as well as the rest of the hotel. I found the staff to be friendly and well trained. I would like to mention.a saff member by namr as he really went above and beyond in good coustmer serivce thanks you Luis for a great stay.... I will return and recommend your hotelMore</t>
   </si>
   <si>
+    <t>C-H82013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r185045315-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1070,6 +1187,9 @@
     <t>What a pleasant surprise to find such hospitality on a business trip. The staff is very warm, friendly and helpful. From the welcoming get together in the evening, the clean quiet rooms and the complimentary breakfast it was great. Thank you to Luis Amaya, Lisa, Tina and the entire staff!More</t>
   </si>
   <si>
+    <t>beagle47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r183701715-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1091,6 +1211,9 @@
     <t>I have occasion to visit the desert.  I never looked forward to the stay until I found this Holiday Inn Express.  The rooms are very nice, quiet and affordable.  I always get the suite with a balcony now.  They offer plenty of room, space to work or just relax inside or out. The staff really goes out of its way.  I stayed yesterday, a Monday.  I was stopped as I went to exit the lobby by a very nice staff person who suggested I "stay in and enjoy the pizza and beer."  I did while watching Monday night football on a big screen.  The night was relaxing and as the staff person suggested "a lot better than going out for dinner in this cold weather."  I cannot say enough about the staff here, they are great every time I stay.  One hint:  one can hear the sliding doors second floor balcony rooms, but personally I like the balconies on the second floor better than the third floor.  Regardless of the room I will stay often as they are all well-appointed but more importantly this is a clean stay and one hosted by the nicest people.More</t>
   </si>
   <si>
+    <t>maurizi01957</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r183257821-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1112,6 +1235,9 @@
     <t>A nice hotel to stop and rest if you are on a business trip like me. People are so friendly here that I felt I was home. Breakfast  very good with hot good food. Rooms are clean and quiet. Bathrooms would take an update but they are clean. I would stop again if I am in the areaMore</t>
   </si>
   <si>
+    <t>safety247</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r183111863-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1130,6 +1256,9 @@
     <t>I stayed there one night be mistake. It was the best mistake I'd made in a long time.  I arrived just in time for the Monday night reception.  I enjoyed a football game on a big screen TV in a very comfortable chair surrounded by good food and cold drinks.  Tina kept the food hot and the drinks cold and ready.  No soggy pretzels , stale chips, and flat drinks here... top quality goodies all around!  Luis made the rounds sincerely inquiring from each of us how they might make the experience better.The room was bright and clean.  the bedding soft and comfortable.  Breakfast was hot and ready on time.  I was on my way to my destination wondering how I could manage to divert myself back there again soon.  I really enjoyed myself.More</t>
   </si>
   <si>
+    <t>jon_logan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r180709276-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1148,6 +1277,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Eulalia_3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r180269842-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1169,6 +1301,9 @@
     <t>This is a wonderful hotel.It was not super fancy, ornate, or elegant, but it was extremely clean (possibly the cleanest I've seen) and very well appointed.There was a fridge and micro in the room.Nice wall color and awesome rug pattern.There was no fragrance smell in the hallway or in the rooms.There was a very nice tiled tub/shower area.  Extremely well done.Plenty of counter space in the bathroom.Plenty of outlets.Lots of hot water and good water pressure.The bed was a bit hard for my taste, but it was fine.The bedding was soft and comfortable.The doors to each room looked like outside doors.  Very tastefully done and unique.Lastly...Marissa and Jonathan at the desk were efficient, polite, and adorable.I would definitely stay again.: -)More</t>
   </si>
   <si>
+    <t>Kim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r173615274-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1187,6 +1322,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Chuck A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r169851677-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1208,6 +1346,9 @@
     <t>I was stranded in Lancaster back in september of last year, and stayed at this hotel. I had the same clerk "Luis" check me in last time. I went back to go to Willow springs raceway and satyed there again.. The same clerk was there and checked me in again, he remembered me by name, and asked about my car.. I was shocked he remembered me.. This made me feel welcomed and Glad I came back.. He informed me that They Have a Willow springs raceway rate that saved me some $$$.. :-) The hotel is freshley remodeled, and clean.. The staff is friendly and attentive to your needs. I would defenatly recomend this hotel.. I've stayed at other places that are more expensive, and not nearly as good.  Thak you Holiday Inn express.... ChuckMore</t>
   </si>
   <si>
+    <t>duchess397</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r169402177-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1223,6 +1364,9 @@
     <t>Husband and I were flooded out of our home so we have stayed here for last seven weeks. It's a wonderful second home. Beautiful room, great breakfast. But the staff is fantastic and courteous. Watching them work when a crowd arrives...it's like an efficient machine. I will be glad to move back home but I will miss this hotel!</t>
   </si>
   <si>
+    <t>rubaig89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r163623157-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1238,6 +1382,9 @@
     <t xml:space="preserve">Stayed here for one night during my brother's graduation from WCBC. Tip: they give discounts to families of WCBC graduates if you hook directly with hotel. Rooms were clean, modern, and lots of free parking available. We stayed with our pet and paid $15 I believe. Free breakfast was okay. Eggs, pastries, and coffee. About 4 miles from downtown. </t>
   </si>
   <si>
+    <t>Sonoran_Skies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r157546305-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1265,6 +1412,9 @@
     <t>It's new.  It's away from the freeway a bit.  The rooms are nicely sized, have everything expected and are nicely decorated (love the bathroom amenities).  Room lighting was good,   I liked all the outlets.Bed was comfortable, pillows okay.  Wifi was fast.  The room heater/cooler was loud and seemed to come on at random times.  TV selection was pretty lame.Shower was hot, cool shower head.  Pressure was *meh*.   Towels very *meh*.Coffee was decent and supplies were good.  Breakfast in the morning was decent, though they let the OJ run out with an hour to go.Free parking.I would have liked the bill under my door.More</t>
   </si>
   <si>
+    <t>318PGW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r157425957-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1283,6 +1433,9 @@
     <t>After staying is Antelope Valley hotels every year for the past 15 years, I have finally found the best hotel in the valley!  I've been staying here for the past 4 years and could not find one thing to be critical about.  The staff is extremely helpful, the entire property in clean and well kept and you will not find a better 1-room suite in the valley, especially for the price!  This is a quality hotel that is far superior to its competition... I can say that because I've stayed in just about every hotel around.  You can pay more elsewhere, but you WILL NOT get the service, quality and cleanliness you get at this Holiday Inn Express!  They've found a loyal customer in me!!More</t>
   </si>
   <si>
+    <t>JennLou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r152665379-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1310,6 +1463,9 @@
     <t>I really enjoyed my stay at the Holiday Inn.  The room was clean and comfortable and the hotel staff was so helpful. The breakfast was better than what I had previously experienced at other medium priced hotels....they even have a machine that will make pancakes for you.  The price was good and the value was great.More</t>
   </si>
   <si>
+    <t>janekVancouverIsland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r145994834-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1337,6 +1493,9 @@
     <t>We booked this through Priceline and were pleased our "3 star" choice ended up at a Holiday Inn Express.No surprises and just what one would expect from this chain.Room was comfortable and clean.  We were tired after a long day on the road and our check in could not have gone better.  Friendly greeting, accommodating staff.We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>23Dorsett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r139610213-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1379,6 +1538,9 @@
     <t>The Staff here is awesome, Check in was a breeze. The roos were clean, and the staff helped find things to do in the city. I feelt like they went above and beyond to make sure I did't need anything.. The breakfast was better that I anticipated. They had fresh fruit, Bacon and eggs. I was expecting a regular continental breakfast, this was a pleasant suprise.. I was there for three days until my car was fixed and I was able to continue with my trip, But I am glad I ended up at this hotel.. If I ever need to say in that area again I will go the the Holiday Inn Express in Lancaster Ca!More</t>
   </si>
   <si>
+    <t>donbvs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r127316526-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1406,6 +1568,9 @@
     <t>Due to work and weather conditions which prevented travel home, I've stayed in this hotel many times over the last few years and will return. It's fairly new, very clean and staff have gone above-and-beyond when asked for any kind of help. It has recently (?) gone under new ownership but still maintains all the service and quality that has brought me back again and again. The rooms are as good or better than would be expected in a new HI Express... very clean and quiet even though close to the freeway. I'm usually pretty tired when I check in and always feel comfortable when I get to my well-appointed room and always have a good sleep there. I've never eaten the available breakfast so can't comment on that amenity. I'd love it even more if the room rate was cut in half (ha ha!)... but hey, it's 2012 and the cost is about the same or better than the other nice places in Lancaster. Being familiar with the area, I doubt I would stay in any of the budget places these days.More</t>
   </si>
   <si>
+    <t>chucky22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r125608605-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1430,6 +1595,9 @@
     <t>This site is fairly new. The mgmt. and staff are friendly etc. but this is my chief complaint.  Their breakfast is terrible and there is little variety. No fruit, something that looks likes bacon and watery scrambled eggs, coffee watered down. I know times are hard everywhere so we strech everything, but this is ridiculous.  Get breakfast somewhere else.  Yeah, I know,...at least the rooms were nice...a/c doesn't work and you can't open a window for fresh air.  Good thing i'm just passin thru!More</t>
   </si>
   <si>
+    <t>GiveMeSunNorCal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r125063812-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1445,6 +1613,9 @@
     <t>Is it a "wow" experience??? No... but it's a very functional hotel with very good guest service (front desk), good hospitable house keeping team, free internet (important for me), clean rooms, and a good breakfast.  My family and I come  once a year for my father-in-laws birthday and always at the same time of year when this community host a huge soccer tournament where all hotels are full.  This is our second or third year here and they do an excellent job keeping the noise level under control when the hotel is full of kids.  We'll be back again next year.</t>
   </si>
   <si>
+    <t>im4duke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r116244455-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1463,6 +1634,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>sancam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r115798101-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1478,6 +1652,9 @@
     <t>We were fortunate to get our team in here on a busy tournament weekend.  The fields are 5 minutes away from the Big 8 softball complex where we would be spending much of the weekend.  The hotel was clean, friendly staff, a small pool and has good breakfest selection. We would stay here again. Only complaints are a very slow elevator and broken chairs at the pool.</t>
   </si>
   <si>
+    <t>luluysalem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r61855189-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1496,6 +1673,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>tinykittin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r12733815-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -1512,6 +1692,9 @@
   </si>
   <si>
     <t>January 2007</t>
+  </si>
+  <si>
+    <t>beargator56</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d536320-r4570431-Holiday_Inn_Express_Lancaster-Lancaster_California.html</t>
@@ -2034,43 +2217,47 @@
       <c r="A2" t="n">
         <v>52952</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>192227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2086,56 +2273,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52952</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>192228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2147,56 +2338,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52952</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>192229</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2208,56 +2403,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52952</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>21519</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2269,56 +2468,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52952</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>192230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2330,56 +2533,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52952</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>192231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2397,56 +2604,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52952</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>192232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2464,56 +2675,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52952</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>8268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>112</v>
       </c>
-      <c r="L9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
-      </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2525,56 +2740,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52952</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>192233</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2590,56 +2809,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52952</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>192234</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2655,56 +2878,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52952</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>192235</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2720,56 +2947,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52952</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>18095</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2781,56 +3012,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52952</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>192236</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2848,56 +3083,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52952</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>192237</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2909,56 +3148,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52952</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>39371</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2970,56 +3213,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52952</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>88987</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3035,56 +3282,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52952</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>192238</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3102,56 +3353,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="X18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52952</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>192239</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3169,56 +3424,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52952</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>77139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3236,56 +3495,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52952</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>192240</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3301,56 +3564,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="X21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52952</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>91906</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3368,50 +3635,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52952</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>192241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3429,50 +3700,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52952</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>192242</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3486,50 +3761,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52952</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>43897</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3543,50 +3822,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52952</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>192243</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="O26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3600,41 +3883,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52952</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>192244</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -3653,50 +3940,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52952</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>192245</v>
+      </c>
+      <c r="C28" t="s">
+        <v>278</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3710,50 +4001,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52952</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>3199</v>
+      </c>
+      <c r="C29" t="s">
+        <v>285</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="J29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3773,50 +4068,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52952</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>90037</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="J30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3830,50 +4129,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52952</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>192246</v>
+      </c>
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3891,50 +4194,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52952</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>15935</v>
+      </c>
+      <c r="C32" t="s">
+        <v>306</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="L32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3958,50 +4265,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52952</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>192247</v>
+      </c>
+      <c r="C33" t="s">
+        <v>313</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4025,50 +4336,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52952</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>192248</v>
+      </c>
+      <c r="C34" t="s">
+        <v>318</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="O34" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4090,56 +4405,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="X34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="Y34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52952</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>192249</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="J35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="K35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="L35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4161,56 +4480,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="X35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="Y35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52952</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>86353</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="J36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4232,56 +4555,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="X36" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="Y36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52952</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>192250</v>
+      </c>
+      <c r="C37" t="s">
+        <v>345</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="K37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="O37" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4293,56 +4620,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="X37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="Y37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52952</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>192251</v>
+      </c>
+      <c r="C38" t="s">
+        <v>355</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="J38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K38" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4354,47 +4685,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="X38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="Y38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52952</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>192252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>364</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="J39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="K39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="L39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4421,56 +4756,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="X39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52952</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>192253</v>
+      </c>
+      <c r="C40" t="s">
+        <v>373</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="L40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="O40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4492,56 +4831,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="X40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="Y40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52952</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>192254</v>
+      </c>
+      <c r="C41" t="s">
+        <v>382</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="J41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="K41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="L41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4563,56 +4906,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="X41" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="Y41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52952</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>36017</v>
+      </c>
+      <c r="C42" t="s">
+        <v>390</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="J42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="K42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="O42" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4634,56 +4981,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="X42" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="Y42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52952</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>192255</v>
+      </c>
+      <c r="C43" t="s">
+        <v>398</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="J43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="L43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="O43" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4705,56 +5056,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="X43" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="Y43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52952</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>192256</v>
+      </c>
+      <c r="C44" t="s">
+        <v>405</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="J44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="K44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4778,50 +5133,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52952</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>412</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="J45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="K45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="L45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="O45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4845,50 +5204,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52952</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>4074</v>
+      </c>
+      <c r="C46" t="s">
+        <v>420</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="J46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="K46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="L46" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="O46" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4912,50 +5275,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52952</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>82511</v>
+      </c>
+      <c r="C47" t="s">
+        <v>427</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="J47" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="K47" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="O47" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4979,50 +5346,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52952</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>192257</v>
+      </c>
+      <c r="C48" t="s">
+        <v>435</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="J48" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="L48" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5046,41 +5417,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52952</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>192258</v>
+      </c>
+      <c r="C49" t="s">
+        <v>441</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="J49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="K49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -5109,50 +5484,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>52952</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>192259</v>
+      </c>
+      <c r="C50" t="s">
+        <v>447</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="J50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="K50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="O50" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5174,56 +5553,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="X50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="Y50" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>52952</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>192260</v>
+      </c>
+      <c r="C51" t="s">
+        <v>457</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="J51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="K51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="L51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="O51" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5245,56 +5628,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="X51" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="Y51" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>52952</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>33094</v>
+      </c>
+      <c r="C52" t="s">
+        <v>464</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="J52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="K52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="L52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="O52" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5316,56 +5703,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="X52" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="Y52" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52952</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>192261</v>
+      </c>
+      <c r="C53" t="s">
+        <v>474</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="J53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="K53" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="L53" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5387,56 +5778,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="X53" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="Y53" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52952</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>192262</v>
+      </c>
+      <c r="C54" t="s">
+        <v>484</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="J54" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="K54" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="L54" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="O54" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5458,56 +5853,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="X54" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="Y54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>52952</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>82511</v>
+      </c>
+      <c r="C55" t="s">
+        <v>427</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="J55" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="K55" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="L55" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="O55" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5529,56 +5928,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="X55" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="Y55" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>52952</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>192263</v>
+      </c>
+      <c r="C56" t="s">
+        <v>499</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="J56" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="K56" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="L56" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="O56" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5600,56 +6003,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="X56" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="Y56" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>52952</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>192264</v>
+      </c>
+      <c r="C57" t="s">
+        <v>509</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="J57" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="K57" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="L57" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="O57" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5671,56 +6078,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="X57" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="Y57" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>52952</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>192265</v>
+      </c>
+      <c r="C58" t="s">
+        <v>518</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="J58" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="K58" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="L58" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5744,50 +6155,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>52952</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>192266</v>
+      </c>
+      <c r="C59" t="s">
+        <v>524</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="J59" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="K59" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="L59" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="O59" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5807,50 +6222,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>52952</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>192267</v>
+      </c>
+      <c r="C60" t="s">
+        <v>531</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="J60" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="K60" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="L60" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5870,50 +6289,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>52952</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>192268</v>
+      </c>
+      <c r="C61" t="s">
+        <v>537</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="J61" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="K61" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="L61" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5937,50 +6360,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>52952</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>192269</v>
+      </c>
+      <c r="C62" t="s">
+        <v>544</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="J62" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="K62" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="L62" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="O62" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6004,41 +6431,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>52952</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>13001</v>
+      </c>
+      <c r="C63" t="s">
+        <v>551</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="J63" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="K63" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="L63" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
@@ -6057,7 +6488,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
